--- a/biology/Botanique/Alnus_oblongifolia/Alnus_oblongifolia.xlsx
+++ b/biology/Botanique/Alnus_oblongifolia/Alnus_oblongifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alnus oblongifolia, parfois nommé Aulne de l'Arizona, est une espèce de plante à fleurs de la famille des bétulacées, originaire du sud-ouest des États-Unis.
 Synonyme : Alnus serrulata var. oblongifolia (Torr.) Regel
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbre pouvant atteindre une taille de 30 mètres. Son tronc est gris sombre. Il noircit et se couvre de plaques avec l'âge.
-Les feuilles ont une forme ovale ou lancéolée à presque elliptique pour une taille de 5–9 cm de long pour 3–6 cm de large[1].
+Les feuilles ont une forme ovale ou lancéolée à presque elliptique pour une taille de 5–9 cm de long pour 3–6 cm de large.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’arbre est présent au sud-ouest des États-Unis dans les États de l'Arizona et du Nouveau-Mexique[2].
-Il apprécie la proximité des cours d'eau et les lieux humides, généralement dans des canyons de montagne de 1 000 à 2 300 mètres d'altitude. Par exemple dans les régions montagneuses du désert de Sonora et du désert de Chihuahua[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’arbre est présent au sud-ouest des États-Unis dans les États de l'Arizona et du Nouveau-Mexique.
+Il apprécie la proximité des cours d'eau et les lieux humides, généralement dans des canyons de montagne de 1 000 à 2 300 mètres d'altitude. Par exemple dans les régions montagneuses du désert de Sonora et du désert de Chihuahua.
 </t>
         </is>
       </c>
